--- a/masonry_design/CMU_weights.xlsx
+++ b/masonry_design/CMU_weights.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanson\Desktop\Resources\python_resources\masonry_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0965EE-3891-4AFD-B53D-59744D8457E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB33C10-6504-41C2-A2BB-F66B46F713C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10125" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LW CMU" sheetId="1" r:id="rId1"/>
-    <sheet name="MW CMU" sheetId="2" r:id="rId2"/>
-    <sheet name="NW CMU" sheetId="3" r:id="rId3"/>
-    <sheet name="Eq Thickness" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="LW CMU (PSF)" sheetId="1" r:id="rId2"/>
+    <sheet name="MW CMU (PSF)" sheetId="2" r:id="rId3"/>
+    <sheet name="NW CMU (PSF)" sheetId="3" r:id="rId4"/>
+    <sheet name="Eq Thickness (in)" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>LW t=6"</t>
   </si>
@@ -53,6 +54,39 @@
   </si>
   <si>
     <t>48" o.c.</t>
+  </si>
+  <si>
+    <t>t=6"</t>
+  </si>
+  <si>
+    <t>t=8"</t>
+  </si>
+  <si>
+    <t>t=10"</t>
+  </si>
+  <si>
+    <t>t=12"</t>
+  </si>
+  <si>
+    <t>16"</t>
+  </si>
+  <si>
+    <t>24"</t>
+  </si>
+  <si>
+    <t>32"</t>
+  </si>
+  <si>
+    <t>40"</t>
+  </si>
+  <si>
+    <t>48"</t>
+  </si>
+  <si>
+    <t>Average Weight of Completed Wall (psf)</t>
+  </si>
+  <si>
+    <t>Equivalent Solid Thickness (in)</t>
   </si>
 </sst>
 </file>
@@ -895,11 +929,440 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C308CB-F658-40CC-BEC2-F96AA586ED32}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1">
+        <v>75</v>
+      </c>
+      <c r="D2" s="1">
+        <v>93</v>
+      </c>
+      <c r="E2" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1">
+        <v>61</v>
+      </c>
+      <c r="E4" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1">
+        <v>57</v>
+      </c>
+      <c r="E5" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1">
+        <v>49</v>
+      </c>
+      <c r="D7" s="1">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDDC212-33EB-4D4D-B379-173D85D5DBD1}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1">
+        <v>98</v>
+      </c>
+      <c r="E2" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1">
+        <v>72</v>
+      </c>
+      <c r="E4" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1">
+        <v>68</v>
+      </c>
+      <c r="E5" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1">
+        <v>66</v>
+      </c>
+      <c r="E6" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1">
+        <v>51</v>
+      </c>
+      <c r="D7" s="1">
+        <v>64</v>
+      </c>
+      <c r="E7" s="1">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DA692F-A8CA-4628-9A97-05E922EC08B2}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1">
+        <v>84</v>
+      </c>
+      <c r="D2" s="1">
+        <v>104</v>
+      </c>
+      <c r="E2" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1">
+        <v>86</v>
+      </c>
+      <c r="E3" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1">
+        <v>78</v>
+      </c>
+      <c r="E4" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1">
+        <v>74</v>
+      </c>
+      <c r="E5" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1">
+        <v>72</v>
+      </c>
+      <c r="E6" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1">
+        <v>70</v>
+      </c>
+      <c r="E7" s="1">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA79679-4C21-47CC-90E7-971B0BCB6FCD}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,409 +1389,6 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>52</v>
-      </c>
-      <c r="C2" s="1">
-        <v>75</v>
-      </c>
-      <c r="D2" s="1">
-        <v>93</v>
-      </c>
-      <c r="E2" s="1">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1">
-        <v>69</v>
-      </c>
-      <c r="E3" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1">
-        <v>55</v>
-      </c>
-      <c r="D4" s="1">
-        <v>61</v>
-      </c>
-      <c r="E4" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>36</v>
-      </c>
-      <c r="C5" s="1">
-        <v>52</v>
-      </c>
-      <c r="D5" s="1">
-        <v>57</v>
-      </c>
-      <c r="E5" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1">
-        <v>50</v>
-      </c>
-      <c r="D6" s="1">
-        <v>55</v>
-      </c>
-      <c r="E6" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1">
-        <v>49</v>
-      </c>
-      <c r="D7" s="1">
-        <v>53</v>
-      </c>
-      <c r="E7" s="1">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDDC212-33EB-4D4D-B379-173D85D5DBD1}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>58</v>
-      </c>
-      <c r="C2" s="1">
-        <v>78</v>
-      </c>
-      <c r="D2" s="1">
-        <v>98</v>
-      </c>
-      <c r="E2" s="1">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>47</v>
-      </c>
-      <c r="C3" s="1">
-        <v>63</v>
-      </c>
-      <c r="D3" s="1">
-        <v>80</v>
-      </c>
-      <c r="E3" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43</v>
-      </c>
-      <c r="C4" s="1">
-        <v>58</v>
-      </c>
-      <c r="D4" s="1">
-        <v>72</v>
-      </c>
-      <c r="E4" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>42</v>
-      </c>
-      <c r="C5" s="1">
-        <v>55</v>
-      </c>
-      <c r="D5" s="1">
-        <v>68</v>
-      </c>
-      <c r="E5" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1">
-        <v>53</v>
-      </c>
-      <c r="D6" s="1">
-        <v>66</v>
-      </c>
-      <c r="E6" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1">
-        <v>51</v>
-      </c>
-      <c r="D7" s="1">
-        <v>64</v>
-      </c>
-      <c r="E7" s="1">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DA692F-A8CA-4628-9A97-05E922EC08B2}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>63</v>
-      </c>
-      <c r="C2" s="1">
-        <v>84</v>
-      </c>
-      <c r="D2" s="1">
-        <v>104</v>
-      </c>
-      <c r="E2" s="1">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>52</v>
-      </c>
-      <c r="C3" s="1">
-        <v>66</v>
-      </c>
-      <c r="D3" s="1">
-        <v>86</v>
-      </c>
-      <c r="E3" s="1">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>48</v>
-      </c>
-      <c r="C4" s="1">
-        <v>61</v>
-      </c>
-      <c r="D4" s="1">
-        <v>78</v>
-      </c>
-      <c r="E4" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1">
-        <v>58</v>
-      </c>
-      <c r="D5" s="1">
-        <v>74</v>
-      </c>
-      <c r="E5" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>46</v>
-      </c>
-      <c r="C6" s="1">
-        <v>56</v>
-      </c>
-      <c r="D6" s="1">
-        <v>72</v>
-      </c>
-      <c r="E6" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1">
-        <v>55</v>
-      </c>
-      <c r="D7" s="1">
-        <v>70</v>
-      </c>
-      <c r="E7" s="1">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA79679-4C21-47CC-90E7-971B0BCB6FCD}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
         <v>5.6</v>
       </c>
       <c r="C2" s="1">
